--- a/Weekly Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly Figures/all_Phenomics_paper_metrics.xlsx
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>449</v>
+        <v>755</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>522</v>
+        <v>656</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>874</v>
+        <v>920</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="F22">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>1278</v>
+        <v>1313</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>1329</v>
+        <v>1362</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>3164</v>
+        <v>3243</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>2402</v>
+        <v>2457</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>2625</v>
+        <v>2658</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>931</v>
+        <v>956</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>1088</v>
+        <v>1124</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="F37">
-        <v>4717</v>
+        <v>4833</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="F40">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>3006</v>
+        <v>3061</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>1204</v>
+        <v>1230</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>1144</v>
+        <v>1161</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="F49">
-        <v>2389</v>
+        <v>2433</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>3493</v>
+        <v>3531</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>1545</v>
+        <v>1569</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>1201</v>
+        <v>1229</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>1307</v>
+        <v>1334</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>2646</v>
+        <v>2679</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>6752</v>
+        <v>6859</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>1095</v>
+        <v>1127</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>1794</v>
+        <v>1827</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>1488</v>
+        <v>1510</v>
       </c>
       <c r="G58">
         <v>10</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>1228</v>
+        <v>1252</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="F60">
-        <v>3759</v>
+        <v>3815</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>1356</v>
+        <v>1373</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>1131</v>
+        <v>1148</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>2435</v>
+        <v>2461</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>3497</v>
+        <v>3523</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>2835</v>
+        <v>2864</v>
       </c>
       <c r="G66">
         <v>7</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>1805</v>
+        <v>1827</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>1789</v>
+        <v>1829</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>2435</v>
+        <v>2461</v>
       </c>
       <c r="G70">
         <v>11</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>1429</v>
+        <v>1454</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>1994</v>
+        <v>2026</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="F73">
-        <v>1734</v>
+        <v>1751</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>1404</v>
+        <v>1419</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>1708</v>
+        <v>1726</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>3487</v>
+        <v>3512</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>1960</v>
+        <v>1984</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>1323</v>
+        <v>1340</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         </is>
       </c>
       <c r="F80">
-        <v>5074</v>
+        <v>5117</v>
       </c>
       <c r="G80">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>11</v>
@@ -4580,13 +4580,13 @@
         </is>
       </c>
       <c r="F81">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>1949</v>
+        <v>1969</v>
       </c>
       <c r="G84">
         <v>7</v>
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>1734</v>
+        <v>1758</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>3382</v>
+        <v>3407</v>
       </c>
       <c r="G86">
         <v>8</v>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>2752</v>
+        <v>2778</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>2242</v>
+        <v>2261</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>1290</v>
+        <v>1306</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -5174,13 +5174,13 @@
         </is>
       </c>
       <c r="F92">
-        <v>3327</v>
+        <v>3349</v>
       </c>
       <c r="G92">
         <v>15</v>
       </c>
       <c r="H92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>2310</v>
+        <v>2332</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>2053</v>
+        <v>2076</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="F96">
-        <v>2665</v>
+        <v>2695</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H96">
         <v>7</v>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>4072</v>
+        <v>4100</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="F98">
-        <v>4272</v>
+        <v>4309</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>1434</v>
+        <v>1453</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>2102</v>
+        <v>2118</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>2159</v>
+        <v>2177</v>
       </c>
       <c r="G101">
         <v>12</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="G102">
         <v>8</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>2057</v>
+        <v>2077</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>1971</v>
+        <v>1992</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>1738</v>
+        <v>1760</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>3702</v>
+        <v>3744</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>1959</v>
+        <v>1984</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1874</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>2336</v>
+        <v>2354</v>
       </c>
       <c r="G109">
         <v>8</v>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>4736</v>
+        <v>4779</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>4817</v>
+        <v>4839</v>
       </c>
       <c r="G111">
         <v>12</v>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>3652</v>
+        <v>3700</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>4783</v>
+        <v>4823</v>
       </c>
       <c r="G113">
         <v>5</v>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>1579</v>
+        <v>1597</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -6406,10 +6406,10 @@
         </is>
       </c>
       <c r="F115">
-        <v>3974</v>
+        <v>4001</v>
       </c>
       <c r="G115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -6460,10 +6460,10 @@
         </is>
       </c>
       <c r="F116">
-        <v>5157</v>
+        <v>5193</v>
       </c>
       <c r="G116">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>3453</v>
+        <v>3477</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>2256</v>
+        <v>2272</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>3888</v>
+        <v>3921</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="F120">
-        <v>6813</v>
+        <v>6849</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H120">
         <v>15</v>
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>2822</v>
+        <v>2843</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>5251</v>
+        <v>5292</v>
       </c>
       <c r="G122">
         <v>11</v>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="F123">
-        <v>5773</v>
+        <v>5814</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123">
         <v>8</v>

--- a/Weekly Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly Figures/all_Phenomics_paper_metrics.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>755</v>
+        <v>914</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>656</v>
+        <v>761</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>920</v>
+        <v>952</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>1313</v>
+        <v>1346</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>1066</v>
+        <v>1080</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>3243</v>
+        <v>3294</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>1726</v>
+        <v>1778</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>2457</v>
+        <v>2490</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>2658</v>
+        <v>2706</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F35">
-        <v>1124</v>
+        <v>590</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F36">
-        <v>579</v>
+        <v>1149</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2185,17 +2185,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
     </row>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="F37">
-        <v>4833</v>
+        <v>4960</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2382,17 +2382,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F40">
-        <v>1039</v>
+        <v>846</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
     </row>
@@ -2440,10 +2440,10 @@
         </is>
       </c>
       <c r="F41">
-        <v>3061</v>
+        <v>3108</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2544,17 +2544,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F43">
-        <v>823</v>
+        <v>1058</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2563,17 +2563,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2706,17 +2706,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F46">
-        <v>1230</v>
+        <v>1141</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2725,17 +2725,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>He Wang</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2760,17 +2760,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F47">
-        <v>1132</v>
+        <v>1241</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>2433</v>
+        <v>2462</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>3531</v>
+        <v>3556</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3024,10 +3024,10 @@
         </is>
       </c>
       <c r="F52">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="F53">
-        <v>1334</v>
+        <v>1344</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>2679</v>
+        <v>2712</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3167,12 +3167,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3182,17 +3182,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F55">
-        <v>6859</v>
+        <v>1138</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F56">
-        <v>1127</v>
+        <v>6945</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3255,17 +3255,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>1510</v>
+        <v>1527</v>
       </c>
       <c r="G58">
         <v>10</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="F60">
-        <v>3815</v>
+        <v>3877</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3668,17 +3668,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F64">
-        <v>1500</v>
+        <v>3536</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
     </row>
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3722,17 +3722,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F65">
-        <v>3523</v>
+        <v>1504</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>2864</v>
+        <v>2887</v>
       </c>
       <c r="G66">
         <v>7</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>1827</v>
+        <v>1840</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>1748</v>
+        <v>1765</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>1829</v>
+        <v>1842</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="G70">
         <v>11</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="F72">
-        <v>2026</v>
+        <v>2038</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="F73">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>1726</v>
+        <v>1737</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>3512</v>
+        <v>3562</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="F77">
-        <v>1984</v>
+        <v>1189</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -4389,17 +4389,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4428,10 +4428,10 @@
         </is>
       </c>
       <c r="F78">
-        <v>1183</v>
+        <v>2000</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -4443,17 +4443,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>5117</v>
+        <v>5154</v>
       </c>
       <c r="G80">
         <v>35</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>1969</v>
+        <v>1984</v>
       </c>
       <c r="G84">
         <v>7</v>
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>1758</v>
+        <v>1770</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4846,17 +4846,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F86">
-        <v>3407</v>
+        <v>1058</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4900,17 +4900,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F87">
-        <v>1053</v>
+        <v>3417</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4919,17 +4919,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>2778</v>
+        <v>2794</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -5174,13 +5174,13 @@
         </is>
       </c>
       <c r="F92">
-        <v>3349</v>
+        <v>3362</v>
       </c>
       <c r="G92">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H92">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>2332</v>
+        <v>2348</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>2076</v>
+        <v>2090</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>2695</v>
+        <v>2702</v>
       </c>
       <c r="G96">
         <v>7</v>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>4100</v>
+        <v>4111</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="F98">
-        <v>4309</v>
+        <v>4341</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>2177</v>
+        <v>2189</v>
       </c>
       <c r="G101">
         <v>12</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="G102">
         <v>8</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>2077</v>
+        <v>2091</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>3744</v>
+        <v>3776</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -5974,10 +5974,10 @@
         </is>
       </c>
       <c r="F107">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>1874</v>
+        <v>1893</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>2354</v>
+        <v>2373</v>
       </c>
       <c r="G109">
         <v>8</v>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>4779</v>
+        <v>4795</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -6190,13 +6190,13 @@
         </is>
       </c>
       <c r="F111">
-        <v>4839</v>
+        <v>4852</v>
       </c>
       <c r="G111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H111">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>3700</v>
+        <v>3739</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -6298,10 +6298,10 @@
         </is>
       </c>
       <c r="F113">
-        <v>4823</v>
+        <v>4854</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H113">
         <v>6</v>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6348,17 +6348,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F114">
-        <v>1597</v>
+        <v>4025</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -6367,17 +6367,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6402,17 +6402,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F115">
-        <v>4001</v>
+        <v>1602</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -6421,17 +6421,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6456,17 +6456,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F116">
-        <v>5193</v>
+        <v>2279</v>
       </c>
       <c r="G116">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -6475,17 +6475,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>3477</v>
+        <v>3494</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6564,17 +6564,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F118">
-        <v>2272</v>
+        <v>5229</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -6583,17 +6583,17 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>3921</v>
+        <v>3949</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>22–30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="F120">
-        <v>6849</v>
+        <v>5320</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H120">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -6691,17 +6691,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
     </row>
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>2843</v>
+        <v>2848</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>3–14</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="F122">
-        <v>5292</v>
+        <v>6887</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -6799,17 +6799,17 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
     </row>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="F123">
-        <v>5814</v>
+        <v>5838</v>
       </c>
       <c r="G123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>8</v>

--- a/Weekly Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,163 +421,133 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>549–564</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F2">
-        <v>914</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
+          <t>Multimodal Omics Approaches to Aging and Age-Related Diseases</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>586–596</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F3">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
+          <t>Next-Generation Sequencing-Based Copy Number Variation Analysis in Chinese Patients with Primary Ciliary Dyskinesia Revealed Novel &lt;i&gt;DNAH5&lt;/i&gt; Copy Number Variations</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>639–641</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F4">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
+          <t>A Heterozygous &lt;i&gt;Phospholamban&lt;/i&gt; Variant (p.R14del) Leads to Left Ventricular Involvement and Heart Failure Phenotypes in Arrhythmogenic Right Ventricular Cardiomyopathy</t>
         </is>
       </c>
     </row>
@@ -592,46 +562,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F5">
-        <v>761</v>
+        <v>1239</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Phenomic Imaging</t>
+          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
         </is>
       </c>
     </row>
@@ -646,12 +616,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -660,32 +630,32 @@
         </is>
       </c>
       <c r="F6">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
+          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
         </is>
       </c>
     </row>
@@ -693,43 +663,53 @@
       <c r="A7">
         <v>2023</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>639–641</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F7">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
+          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
         </is>
       </c>
     </row>
@@ -744,12 +724,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,32 +738,32 @@
         </is>
       </c>
       <c r="F8">
-        <v>323</v>
+        <v>1057</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
+          <t>Phenomic Imaging</t>
         </is>
       </c>
     </row>
@@ -791,6 +771,16 @@
       <c r="A9">
         <v>2023</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>613–638</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>2023-10</t>
@@ -802,32 +792,32 @@
         </is>
       </c>
       <c r="F9">
-        <v>172</v>
+        <v>542</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Cong Li</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
+          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
         </is>
       </c>
     </row>
@@ -837,41 +827,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F10">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
+          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
         </is>
       </c>
     </row>
@@ -879,43 +869,53 @@
       <c r="A11">
         <v>2023</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>535–547</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F11">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
+          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
         </is>
       </c>
     </row>
@@ -925,41 +925,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F12">
-        <v>952</v>
+        <v>198</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
+          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
         </is>
       </c>
     </row>
@@ -978,32 +978,32 @@
         </is>
       </c>
       <c r="F13">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
+          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
         </is>
       </c>
     </row>
@@ -1011,16 +1011,6 @@
       <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>496–501</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>2023-09</t>
@@ -1032,32 +1022,32 @@
         </is>
       </c>
       <c r="F14">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
+          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
         </is>
       </c>
     </row>
@@ -1076,32 +1066,32 @@
         </is>
       </c>
       <c r="F15">
-        <v>192</v>
+        <v>1079</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for &lt;i&gt;Mycobacterium tuberculosis&lt;/i&gt; Infection</t>
+          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
         </is>
       </c>
     </row>
@@ -1111,41 +1101,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F16">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
+          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
         </is>
       </c>
     </row>
@@ -1160,46 +1150,46 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F17">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
+          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
         </is>
       </c>
     </row>
@@ -1207,53 +1197,43 @@
       <c r="A18">
         <v>2023</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>519–534</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F18">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
+          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for &lt;i&gt;Mycobacterium tuberculosis&lt;/i&gt; Infection</t>
         </is>
       </c>
     </row>
@@ -1261,28 +1241,18 @@
       <c r="A19">
         <v>2023</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>576–585</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F19">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1292,22 +1262,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Performance of &lt;sup&gt;18&lt;/sup&gt;F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
+          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
@@ -1322,46 +1292,46 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F20">
-        <v>549</v>
+        <v>305</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
+          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
         </is>
       </c>
     </row>
@@ -1369,6 +1339,16 @@
       <c r="A21">
         <v>2023</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>519–534</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2023-07</t>
@@ -1376,36 +1356,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F21">
-        <v>669</v>
+        <v>355</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1400,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1434,32 +1414,32 @@
         </is>
       </c>
       <c r="F22">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene &lt;i&gt;ORMDL3&lt;/i&gt; Regulates its Expression Through Allele-Specific JunD Binding</t>
+          <t>Performance of &lt;sup&gt;18&lt;/sup&gt;F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
         </is>
       </c>
     </row>
@@ -1474,46 +1454,46 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F23">
-        <v>427</v>
+        <v>571</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Bing Su</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
+          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
         </is>
       </c>
     </row>
@@ -1521,53 +1501,43 @@
       <c r="A24">
         <v>2023</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>439–456</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F24">
-        <v>1346</v>
+        <v>698</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
+          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
@@ -1575,6 +1545,16 @@
       <c r="A25">
         <v>2023</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>485–495</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>2023-06</t>
@@ -1586,32 +1566,32 @@
         </is>
       </c>
       <c r="F25">
-        <v>1381</v>
+        <v>331</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
+          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene &lt;i&gt;ORMDL3&lt;/i&gt; Regulates its Expression Through Allele-Specific JunD Binding</t>
         </is>
       </c>
     </row>
@@ -1619,6 +1599,16 @@
       <c r="A26">
         <v>2023</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>390–407</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2023-06</t>
@@ -1630,32 +1620,32 @@
         </is>
       </c>
       <c r="F26">
-        <v>1080</v>
+        <v>458</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
+          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1660,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1684,32 +1674,32 @@
         </is>
       </c>
       <c r="F27">
-        <v>3294</v>
+        <v>1444</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
+          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1707,9 @@
       <c r="A28">
         <v>2023</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>350–359</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1738,32 +1718,32 @@
         </is>
       </c>
       <c r="F28">
-        <v>434</v>
+        <v>1482</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>2</v>
       </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
+          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
         </is>
       </c>
     </row>
@@ -1771,53 +1751,43 @@
       <c r="A29">
         <v>2023</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>421–438</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F29">
-        <v>1778</v>
+        <v>1182</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
+          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1802,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1846,32 +1816,32 @@
         </is>
       </c>
       <c r="F30">
-        <v>578</v>
+        <v>3496</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
         </is>
       </c>
     </row>
@@ -1886,46 +1856,46 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F31">
-        <v>2490</v>
+        <v>460</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
         </is>
       </c>
     </row>
@@ -1940,46 +1910,46 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F32">
-        <v>2706</v>
+        <v>1943</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
     </row>
@@ -1994,46 +1964,46 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F33">
-        <v>972</v>
+        <v>610</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
     </row>
@@ -2048,46 +2018,46 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F34">
-        <v>545</v>
+        <v>2669</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2072,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2112,36 +2082,36 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F35">
-        <v>590</v>
+        <v>3378</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2126,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2166,36 +2136,36 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F36">
-        <v>1149</v>
+        <v>1035</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
     </row>
@@ -2210,46 +2180,46 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F37">
-        <v>4960</v>
+        <v>570</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
     </row>
@@ -2264,46 +2234,46 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F38">
-        <v>703</v>
+        <v>607</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
     </row>
@@ -2318,46 +2288,46 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F39">
-        <v>901</v>
+        <v>1221</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>12</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2342,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2386,32 +2356,32 @@
         </is>
       </c>
       <c r="F40">
-        <v>846</v>
+        <v>5361</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2396,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2440,32 +2410,32 @@
         </is>
       </c>
       <c r="F41">
-        <v>3108</v>
+        <v>717</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
     </row>
@@ -2480,46 +2450,46 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F42">
-        <v>1013</v>
+        <v>934</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2504,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2544,17 +2514,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F43">
-        <v>1058</v>
+        <v>897</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2563,23 +2533,23 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2588,52 +2558,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F44">
-        <v>1406</v>
+        <v>3267</v>
       </c>
       <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="H44">
-        <v>8</v>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2642,52 +2612,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F45">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Hui Li</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2696,46 +2666,46 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F46">
-        <v>1141</v>
+        <v>1092</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2720,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2764,32 +2734,32 @@
         </is>
       </c>
       <c r="F47">
-        <v>1241</v>
+        <v>1447</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
     </row>
@@ -2797,43 +2767,53 @@
       <c r="A48">
         <v>2022</v>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>130–137</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F48">
-        <v>1167</v>
+        <v>1083</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
     </row>
@@ -2848,46 +2828,46 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F49">
-        <v>2462</v>
+        <v>1161</v>
       </c>
       <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>He Wang</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2882,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2916,32 +2896,32 @@
         </is>
       </c>
       <c r="F50">
-        <v>3556</v>
+        <v>1270</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
     </row>
@@ -2949,53 +2929,43 @@
       <c r="A51">
         <v>2022</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>34–49</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F51">
-        <v>1577</v>
+        <v>1196</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
@@ -3010,12 +2980,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3024,32 +2994,32 @@
         </is>
       </c>
       <c r="F52">
-        <v>1239</v>
+        <v>2940</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3034,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3078,32 +3048,32 @@
         </is>
       </c>
       <c r="F53">
-        <v>1344</v>
+        <v>3684</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
     </row>
@@ -3113,12 +3083,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3128,36 +3098,36 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F54">
-        <v>2712</v>
+        <v>1624</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3142,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3186,32 +3156,32 @@
         </is>
       </c>
       <c r="F55">
-        <v>1138</v>
+        <v>1259</v>
       </c>
       <c r="G55">
         <v>7</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3191,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3236,36 +3206,36 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F56">
-        <v>6945</v>
+        <v>1379</v>
       </c>
       <c r="G56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3250,46 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F57">
-        <v>1841</v>
+        <v>2825</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
     </row>
@@ -3329,17 +3299,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3348,32 +3318,32 @@
         </is>
       </c>
       <c r="F58">
-        <v>1527</v>
+        <v>1170</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
     </row>
@@ -3383,17 +3353,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3402,32 +3372,32 @@
         </is>
       </c>
       <c r="F59">
-        <v>1261</v>
+        <v>7376</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3407,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3456,32 +3426,32 @@
         </is>
       </c>
       <c r="F60">
-        <v>3877</v>
+        <v>1879</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3466,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3510,32 +3480,32 @@
         </is>
       </c>
       <c r="F61">
-        <v>1379</v>
+        <v>1588</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
     </row>
@@ -3550,46 +3520,46 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F62">
-        <v>1157</v>
+        <v>1292</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3569,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3618,32 +3588,32 @@
         </is>
       </c>
       <c r="F63">
-        <v>2471</v>
+        <v>4121</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
     </row>
@@ -3653,51 +3623,51 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F64">
-        <v>3536</v>
+        <v>1405</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
     </row>
@@ -3707,17 +3677,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3726,32 +3696,32 @@
         </is>
       </c>
       <c r="F65">
-        <v>1504</v>
+        <v>1170</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -3766,46 +3736,46 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F66">
-        <v>2887</v>
+        <v>2532</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Yong Wang</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3790,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3830,36 +3800,36 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F67">
-        <v>1840</v>
+        <v>3611</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young &lt;i&gt;Portulaca oleracea&lt;/i&gt; L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3844,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3888,32 +3858,32 @@
         </is>
       </c>
       <c r="F68">
-        <v>1765</v>
+        <v>1518</v>
       </c>
       <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
         <v>3</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3893,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3938,36 +3908,36 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F69">
-        <v>1842</v>
+        <v>2934</v>
       </c>
       <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3947,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3996,32 +3966,32 @@
         </is>
       </c>
       <c r="F70">
-        <v>2471</v>
+        <v>1867</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Multi-omics Analysis of Young &lt;i&gt;Portulaca oleracea&lt;/i&gt; L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4006,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4050,32 +4020,32 @@
         </is>
       </c>
       <c r="F71">
-        <v>1462</v>
+        <v>1798</v>
       </c>
       <c r="G71">
         <v>3</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
     </row>
@@ -4090,46 +4060,46 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F72">
-        <v>2038</v>
+        <v>1875</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N&lt;sup&gt;6&lt;/sup&gt;-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
     </row>
@@ -4144,46 +4114,46 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F73">
-        <v>1761</v>
+        <v>2548</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H73">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4168,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4212,32 +4182,32 @@
         </is>
       </c>
       <c r="F74">
-        <v>1425</v>
+        <v>1486</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>6</v>
-      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4217,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4262,36 +4232,36 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F75">
-        <v>1737</v>
+        <v>2105</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>Emerging Regulatory Mechanisms of N&lt;sup&gt;6&lt;/sup&gt;-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4276,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4316,36 +4286,36 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F76">
-        <v>3562</v>
+        <v>1788</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4330,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4374,32 +4344,32 @@
         </is>
       </c>
       <c r="F77">
-        <v>1189</v>
+        <v>1437</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4384,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4428,32 +4398,32 @@
         </is>
       </c>
       <c r="F78">
-        <v>2000</v>
+        <v>1773</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
     </row>
@@ -4461,6 +4431,16 @@
       <c r="A79">
         <v>2022</v>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>184–193</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -4468,36 +4448,36 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F79">
-        <v>1345</v>
+        <v>3717</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
     </row>
@@ -4512,46 +4492,46 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F80">
-        <v>5154</v>
+        <v>1202</v>
       </c>
       <c r="G80">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
     </row>
@@ -4566,12 +4546,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4580,32 +4560,32 @@
         </is>
       </c>
       <c r="F81">
-        <v>1294</v>
+        <v>2051</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
     </row>
@@ -4613,53 +4593,43 @@
       <c r="A82">
         <v>2022</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>211–218</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F82">
-        <v>1206</v>
+        <v>1372</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Correction to: Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
       </c>
     </row>
@@ -4674,46 +4644,46 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F83">
-        <v>1229</v>
+        <v>5326</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
     </row>
@@ -4728,46 +4698,46 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F84">
-        <v>1984</v>
+        <v>1310</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4752,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4796,32 +4766,32 @@
         </is>
       </c>
       <c r="F85">
-        <v>1770</v>
+        <v>1219</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in &lt;i&gt;Drosophila melanogaster&lt;/i&gt;</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4806,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4850,32 +4820,32 @@
         </is>
       </c>
       <c r="F86">
-        <v>1058</v>
+        <v>1236</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4860,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4904,32 +4874,32 @@
         </is>
       </c>
       <c r="F87">
-        <v>3417</v>
+        <v>2018</v>
       </c>
       <c r="G87">
         <v>8</v>
       </c>
       <c r="H87">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4914,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4958,32 +4928,32 @@
         </is>
       </c>
       <c r="F88">
-        <v>1646</v>
+        <v>1794</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in &lt;i&gt;Drosophila melanogaster&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4968,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5012,32 +4982,32 @@
         </is>
       </c>
       <c r="F89">
-        <v>2794</v>
+        <v>1070</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5022,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5066,32 +5036,32 @@
         </is>
       </c>
       <c r="F90">
-        <v>2268</v>
+        <v>3441</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5076,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5120,32 +5090,32 @@
         </is>
       </c>
       <c r="F91">
-        <v>1312</v>
+        <v>1676</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
     </row>
@@ -5160,46 +5130,46 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F92">
-        <v>3362</v>
+        <v>2861</v>
       </c>
       <c r="G92">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
     </row>
@@ -5214,12 +5184,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5228,32 +5198,32 @@
         </is>
       </c>
       <c r="F93">
-        <v>2348</v>
+        <v>2294</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5238,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5282,32 +5252,32 @@
         </is>
       </c>
       <c r="F94">
-        <v>2090</v>
+        <v>1329</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
     </row>
@@ -5315,6 +5285,16 @@
       <c r="A95">
         <v>2022</v>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>145–155</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -5322,36 +5302,36 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F95">
-        <v>1395</v>
+        <v>3383</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5346,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5376,36 +5356,36 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F96">
-        <v>2702</v>
+        <v>2400</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5400,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5430,96 +5410,86 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F97">
-        <v>4111</v>
+        <v>2139</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Jixi Li</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2021</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>79–87</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F98">
-        <v>4341</v>
+        <v>1442</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5528,100 +5498,100 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F99">
-        <v>1457</v>
+        <v>2757</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F100">
-        <v>2122</v>
+        <v>4171</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
     </row>
@@ -5631,51 +5601,51 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F101">
-        <v>2189</v>
+        <v>4475</v>
       </c>
       <c r="G101">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
     </row>
@@ -5685,51 +5655,51 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F102">
-        <v>2141</v>
+        <v>1472</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>&lt;i&gt;N&lt;/i&gt;-Glycoproteomics Study of Putative &lt;i&gt;N&lt;/i&gt;-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
     </row>
@@ -5744,12 +5714,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5758,32 +5728,32 @@
         </is>
       </c>
       <c r="F103">
-        <v>2091</v>
+        <v>2143</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
     </row>
@@ -5798,7 +5768,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5812,32 +5782,32 @@
         </is>
       </c>
       <c r="F104">
-        <v>2004</v>
+        <v>2221</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
     </row>
@@ -5852,12 +5822,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5866,32 +5836,32 @@
         </is>
       </c>
       <c r="F105">
-        <v>1769</v>
+        <v>2158</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>&lt;i&gt;N&lt;/i&gt;-Glycoproteomics Study of Putative &lt;i&gt;N&lt;/i&gt;-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
     </row>
@@ -5906,46 +5876,46 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F106">
-        <v>3776</v>
+        <v>2107</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
     </row>
@@ -5960,46 +5930,46 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F107">
-        <v>1991</v>
+        <v>2046</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
     </row>
@@ -6014,12 +5984,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6028,32 +5998,32 @@
         </is>
       </c>
       <c r="F108">
-        <v>1893</v>
+        <v>1798</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
@@ -6068,12 +6038,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6082,32 +6052,32 @@
         </is>
       </c>
       <c r="F109">
-        <v>2373</v>
+        <v>3902</v>
       </c>
       <c r="G109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
     </row>
@@ -6122,12 +6092,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6136,32 +6106,32 @@
         </is>
       </c>
       <c r="F110">
-        <v>4795</v>
+        <v>2031</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
     </row>
@@ -6176,46 +6146,46 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F111">
-        <v>4852</v>
+        <v>1921</v>
       </c>
       <c r="G111">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H111">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
     </row>
@@ -6230,46 +6200,46 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F112">
-        <v>3739</v>
+        <v>2393</v>
       </c>
       <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
         <v>5</v>
       </c>
-      <c r="H112">
-        <v>2</v>
-      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6254,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6298,32 +6268,32 @@
         </is>
       </c>
       <c r="F113">
-        <v>4854</v>
+        <v>4908</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
     </row>
@@ -6338,12 +6308,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6352,32 +6322,32 @@
         </is>
       </c>
       <c r="F114">
-        <v>4025</v>
+        <v>4918</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
     </row>
@@ -6392,12 +6362,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6406,32 +6376,32 @@
         </is>
       </c>
       <c r="F115">
-        <v>1602</v>
+        <v>3895</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
     </row>
@@ -6446,46 +6416,46 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F116">
-        <v>2279</v>
+        <v>4928</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
     </row>
@@ -6500,46 +6470,46 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F117">
-        <v>3494</v>
+        <v>4104</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
     </row>
@@ -6554,46 +6524,46 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F118">
-        <v>5229</v>
+        <v>1609</v>
       </c>
       <c r="G118">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
     </row>
@@ -6608,12 +6578,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6622,32 +6592,32 @@
         </is>
       </c>
       <c r="F119">
-        <v>3949</v>
+        <v>2290</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -6662,12 +6632,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6676,32 +6646,32 @@
         </is>
       </c>
       <c r="F120">
-        <v>5320</v>
+        <v>3594</v>
       </c>
       <c r="G120">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
     </row>
@@ -6716,46 +6686,46 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F121">
-        <v>2848</v>
+        <v>5296</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>&lt;i&gt;In Situ&lt;/i&gt; Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates &lt;i&gt;Ucp1&lt;/i&gt; Expression</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
     </row>
@@ -6770,12 +6740,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>54–61</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6784,32 +6754,32 @@
         </is>
       </c>
       <c r="F122">
-        <v>6887</v>
+        <v>4060</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -6824,44 +6794,206 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>5425</v>
+      </c>
+      <c r="G123">
+        <v>11</v>
+      </c>
+      <c r="H123">
+        <v>11</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>2021</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>2863</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;In Situ&lt;/i&gt; Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates &lt;i&gt;Ucp1&lt;/i&gt; Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>2021</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>7005</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>15</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>2021</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F123">
-        <v>5838</v>
-      </c>
-      <c r="G123">
-        <v>10</v>
-      </c>
-      <c r="H123">
-        <v>8</v>
-      </c>
-      <c r="I123" t="inlineStr">
+      <c r="F126">
+        <v>5935</v>
+      </c>
+      <c r="G126">
+        <v>11</v>
+      </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
